--- a/dbx_context_param_optima.xlsx
+++ b/dbx_context_param_optima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KLMembrano\OneDrive - PLDT\dbx_automation\dbx_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F5D19-8EAA-4874-8F5A-8AF87FDF8A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE74BE-ADA3-4709-B9E3-5F1BCF39C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="1" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="186">
   <si>
     <t>iteration</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>p_source_directory</t>
-  </si>
-  <si>
-    <t>p_file_mask</t>
   </si>
   <si>
     <t>mask</t>
@@ -619,55 +616,37 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>process_dt</t>
-  </si>
-  <si>
-    <t>dd-MM-yyyy</t>
-  </si>
-  <si>
     <t>load_date</t>
   </si>
   <si>
     <t>current date of when the data was loaded to table</t>
   </si>
   <si>
-    <t>data_source_base_path</t>
-  </si>
-  <si>
-    <t>data_destination_base_path</t>
-  </si>
-  <si>
-    <t>manifest_source_base_path</t>
-  </si>
-  <si>
-    <t>manifest_destination_base_path</t>
-  </si>
-  <si>
-    <t>reprocessing_data_source_base_path</t>
-  </si>
-  <si>
-    <t>reprocessing_data_destination_base_path</t>
-  </si>
-  <si>
-    <t>reprocessing_manifest_source_base_path</t>
-  </si>
-  <si>
-    <t>reprocessing_manifest_destination_base_path</t>
-  </si>
-  <si>
-    <t>optima/raw/databases/full/optima_op_repadmin_db_prd_a/ARBOR/DESCRIPTIONS</t>
-  </si>
-  <si>
-    <t>manifests/source_manifest/optima/raw/databases/full/optima_op_repadmin_db_prd_a/ARBOR/DESCRIPTIONS</t>
-  </si>
-  <si>
-    <t>Unique id of the file</t>
-  </si>
-  <si>
     <t>decimal(10,0)</t>
   </si>
   <si>
     <t>decimal(6,0)</t>
+  </si>
+  <si>
+    <t>/optima/raw/databases/full/optima_op_repadmin_db_prd_a/ARBOR/DESCRIPTIONS/</t>
+  </si>
+  <si>
+    <t>on_prem_p_file_mask</t>
+  </si>
+  <si>
+    <t>s3_source_file_mask</t>
+  </si>
+  <si>
+    <t>s3_manifest_file_mask</t>
+  </si>
+  <si>
+    <t>s3_source_file_dir</t>
+  </si>
+  <si>
+    <t>MANIFESTs*.txt</t>
+  </si>
+  <si>
+    <t>*.parquets</t>
   </si>
 </sst>
 </file>
@@ -1078,12 +1057,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,6 +1083,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1678,7 +1655,7 @@
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1663,7 @@
     <col min="1" max="1" width="13.59765625" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="27" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" customWidth="1"/>
     <col min="9" max="9" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -1704,13 +1681,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1719,10 +1696,10 @@
         <v>_c0</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" t="str" cm="1">
@@ -1730,13 +1707,13 @@
         <v/>
       </c>
       <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,10 +1722,10 @@
         <v>_c1</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" t="str" cm="1">
@@ -1763,10 +1740,10 @@
         <v>_c2</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" t="str" cm="1">
@@ -1780,7 +1757,7 @@
         <v>_c3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1797,7 +1774,7 @@
         <v>_c4</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1808,13 +1785,13 @@
         <v/>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
         <v>108</v>
-      </c>
-      <c r="K6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,7 +1800,7 @@
         <v>_c5</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1834,13 +1811,13 @@
         <v/>
       </c>
       <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
         <v>107</v>
       </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1849,10 +1826,10 @@
         <v>_c6</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" t="str" cm="1">
@@ -1860,13 +1837,13 @@
         <v/>
       </c>
       <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,7 +1852,7 @@
         <v>_c7</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1886,13 +1863,13 @@
         <v/>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,26 +1878,26 @@
         <v>_c8</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(B10,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,13 +1906,13 @@
         <v>_c9</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(B11,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
@@ -1957,42 +1934,34 @@
         <v>_c10</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(B12,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(B13&lt;&gt;"", "_c" &amp; ROW(B13)-ROW($B$2), "")</f>
-        <v>_c11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13"/>
       <c r="E13" t="str" cm="1">
         <f t="array" ref="E13">_xlfn.XLOOKUP(B13,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -2678,18 +2647,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId4" name="removeSpace_comma">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="lowerCase">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1203960</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2698,7 +2667,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId4" name="removeSpace_comma"/>
+        <control shapeId="1025" r:id="rId4" name="lowerCase"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2728,18 +2697,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="lowerCase">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1029" r:id="rId8" name="removeSpace_comma">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1203960</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2748,7 +2717,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="lowerCase"/>
+        <control shapeId="1029" r:id="rId8" name="removeSpace_comma"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2758,10 +2727,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60F7B6B-C5E1-4429-85DD-83E208CF5571}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B3:G28"/>
+  <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2781,24 +2750,24 @@
       <c r="C3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="46"/>
+      <c r="F3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="30" t="str">
         <f>IF(C6="silver","_s",IF(C6="bronze","_b",IF(C6="reference"," ","")))</f>
         <v>_b</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2806,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -2820,13 +2789,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -2834,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -2842,13 +2811,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2856,13 +2825,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -2870,13 +2839,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -2887,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -2904,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -2912,23 +2881,23 @@
         <v>19</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -2936,12 +2905,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="32" t="str">
         <f>_xlfn.CONCAT(D18,"_task")</f>
@@ -2954,18 +2923,18 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="32" t="str">
         <f>IF(LOWER(C9)="hourly","txn_date",
-IF(LOWER(C9)="daily","txn_date, load_date",
+IF(LOWER(C9)="daily","txn_date",
 IF(LOWER(C9)="minutes","file_timestamp_bucket, txn_date","")))</f>
-        <v>txn_date, load_date</v>
+        <v>txn_date</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="35" t="str">
         <f>IF(LOWER(C9)="hourly","file_timestamp_bucket",
@@ -2973,68 +2942,28 @@
         <v>txn_date</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="C22" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
+      <c r="C23" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="44" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3064,13 +2993,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3078,307 +3007,307 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
         <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
         <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
         <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
         <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
         <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3411,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3564,73 +3493,73 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>8,process_dt</v>
+        <v>8,dbx_process_dttm</v>
       </c>
       <c r="B10" t="str">
         <f>IF(schema!B10&lt;&gt;"", schema!B10, "")</f>
-        <v>process_dt</v>
+        <v>dbx_process_dttm</v>
       </c>
       <c r="C10" t="str">
         <f>IF(schema!C10&lt;&gt;"", schema!C10, "")</f>
-        <v>date</v>
+        <v>timestamp</v>
       </c>
       <c r="D10" s="20" t="str">
         <f>IF(schema!B10&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B10), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B10, 0),"")</f>
-        <v>process_dt</v>
+        <v>dbx_process_dttm</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>9,load_date</v>
+        <v>9,file_name</v>
       </c>
       <c r="B11" t="str">
         <f>IF(schema!B11&lt;&gt;"", schema!B11, "")</f>
-        <v>load_date</v>
+        <v>file_name</v>
       </c>
       <c r="C11" t="str">
         <f>IF(schema!C11&lt;&gt;"", schema!C11, "")</f>
-        <v>date</v>
+        <v>string</v>
       </c>
       <c r="D11" s="20" t="str">
         <f>IF(schema!B11&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B11), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B11, 0),"")</f>
-        <v>load_date</v>
+        <v>file_name</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>10,dbx_process_dttm</v>
+        <v>10,file_id</v>
       </c>
       <c r="B12" t="str">
         <f>IF(schema!B12&lt;&gt;"", schema!B12, "")</f>
-        <v>dbx_process_dttm</v>
+        <v>file_id</v>
       </c>
       <c r="C12" t="str">
         <f>IF(schema!C12&lt;&gt;"", schema!C12, "")</f>
-        <v>timestamp</v>
+        <v>string</v>
       </c>
       <c r="D12" s="20" t="str">
         <f>IF(schema!B12&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B12), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B12, 0),"")</f>
-        <v>dbx_process_dttm</v>
+        <v>file_id</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>11,file_id</v>
+        <v/>
       </c>
       <c r="B13" t="str">
         <f>IF(schema!B13&lt;&gt;"", schema!B13, "")</f>
-        <v>file_id</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(schema!C13&lt;&gt;"", schema!C13, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D13" s="20" t="str">
         <f>IF(schema!B13&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B13), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B13, 0),"")</f>
-        <v>file_id</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6250,22 +6179,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1">
         <v>63</v>
@@ -6277,20 +6206,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="20" t="str">
         <f>IF(B2&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B2)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B2), INDEX($I$2:$I$15, MATCH(B2, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(owning_subscriber_id as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as owning_subscriber_id</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="19" t="str" cm="1">
         <f t="array" ref="I2">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H2)</f>
@@ -6306,10 +6235,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="20" t="str">
         <f>IF(B3&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B3)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B3), INDEX($I$2:$I$15, MATCH(B3, $H$2:$H$15, 0))),"")</f>
@@ -6329,20 +6258,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="20" t="str">
         <f>IF(B4&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B4)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B4), INDEX($I$2:$I$15, MATCH(B4, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(subscriber_id as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as subscriber_id</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="19" t="str" cm="1">
         <f t="array" ref="I4">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H4)</f>
@@ -6355,20 +6284,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="20" t="str">
         <f>IF(B5&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B5)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B5), INDEX($I$2:$I$15, MATCH(B5, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(retailer_id), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as retailer_id</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="19" t="str" cm="1">
         <f t="array" ref="I5">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H5)</f>
@@ -6381,20 +6310,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="20" t="str">
         <f>IF(B6&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B6)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B6), INDEX($I$2:$I$15, MATCH(B6, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(ret_id as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as ret_id</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="19" t="str" cm="1">
         <f t="array" ref="I6">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H6)</f>
@@ -6407,20 +6336,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="20" t="str">
         <f>IF(B7&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B7)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B7), INDEX($I$2:$I$15, MATCH(B7, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(sub_id as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as sub_id</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="19" t="str" cm="1">
         <f t="array" ref="I7">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H7)</f>
@@ -6433,20 +6362,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="20" t="str">
         <f>IF(B8&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B8)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B8), INDEX($I$2:$I$15, MATCH(B8, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(fund_src), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as fund_src</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="19" t="str" cm="1">
         <f t="array" ref="I8">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H8)</f>
@@ -6459,20 +6388,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(B9&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B9)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B9), INDEX($I$2:$I$15, MATCH(B9, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(imsi), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as imsi</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="19" t="str" cm="1">
         <f t="array" ref="I9">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H9)</f>
@@ -6485,20 +6414,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(B10&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B10)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B10), INDEX($I$2:$I$15, MATCH(B10, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(callingnumber), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as callingnumber</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="19" t="str" cm="1">
         <f t="array" ref="I10">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H10)</f>
@@ -6511,20 +6440,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(B11&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B11)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B11), INDEX($I$2:$I$15, MATCH(B11, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(callednumber), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as callednumber</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
         <f t="array" ref="I11">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H11)</f>
@@ -6537,20 +6466,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(B12&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B12)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B12), INDEX($I$2:$I$15, MATCH(B12, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(ret_min as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as ret_min</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="str" cm="1">
         <f t="array" ref="I12">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H12)</f>
@@ -6563,20 +6492,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(B13&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B13)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B13), INDEX($I$2:$I$15, MATCH(B13, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(ret_msisdn as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as ret_msisdn</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="19" t="str" cm="1">
         <f t="array" ref="I13">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H13)</f>
@@ -6589,20 +6518,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="20" t="str">
         <f>IF(B14&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B14)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B14), INDEX($I$2:$I$15, MATCH(B14, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(imei), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as imei</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="19" t="str" cm="1">
         <f t="array" ref="I14">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H14)</f>
@@ -6615,20 +6544,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="20" t="str">
         <f>IF(B15&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B15)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B15), INDEX($I$2:$I$15, MATCH(B15, $H$2:$H$15, 0))),"")</f>
         <v>lower(sha2(concat(trim(cast(dsp_min as string)), 'pO7i1cOAu2qQzFcJyaWBMDAShsfhK6uEmNX57h3vK83lPFFqxCHFWhEPzA3pXulQ'),256)) as dsp_min</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="str" cm="1">
         <f t="array" ref="I15">SUBSTITUTE(_xlfn.IFS($I$1=63,'[1]MASKING-GUIDE'!$I$11,$I$1=9,'[1]MASKING-GUIDE'!$I$8),"&lt;field&gt;",H15)</f>
@@ -6641,13 +6570,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="20" t="str">
         <f>IF(B16&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B16)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B16), INDEX($I$2:$I$15, MATCH(B16, $H$2:$H$15, 0))),"")</f>
@@ -6660,13 +6589,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="20" t="str">
         <f>IF(B17&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B17)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B17), INDEX($I$2:$I$15, MATCH(B17, $H$2:$H$15, 0))),"")</f>
@@ -6679,13 +6608,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="20" t="str">
         <f>IF(B18&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B18)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B18), INDEX($I$2:$I$15, MATCH(B18, $H$2:$H$15, 0))),"")</f>
@@ -6698,13 +6627,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="20" t="str">
         <f>IF(B19&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B19)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B19), INDEX($I$2:$I$15, MATCH(B19, $H$2:$H$15, 0))),"")</f>
@@ -6717,13 +6646,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="20" t="str">
         <f>IF(B20&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B20)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B20), INDEX($I$2:$I$15, MATCH(B20, $H$2:$H$15, 0))),"")</f>
@@ -6736,13 +6665,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="20" t="str">
         <f>IF(B21&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B21)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B21), INDEX($I$2:$I$15, MATCH(B21, $H$2:$H$15, 0))),"")</f>
@@ -6755,13 +6684,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="20" t="str">
         <f>IF(B22&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B22)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B22), INDEX($I$2:$I$15, MATCH(B22, $H$2:$H$15, 0))),"")</f>
@@ -6774,13 +6703,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="20" t="str">
         <f>IF(B23&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B23)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B23), INDEX($I$2:$I$15, MATCH(B23, $H$2:$H$15, 0))),"")</f>
@@ -6793,13 +6722,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="20" t="str">
         <f>IF(B24&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B24)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B24), INDEX($I$2:$I$15, MATCH(B24, $H$2:$H$15, 0))),"")</f>
@@ -6812,13 +6741,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="20" t="str">
         <f>IF(B25&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B25)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B25), INDEX($I$2:$I$15, MATCH(B25, $H$2:$H$15, 0))),"")</f>
@@ -6831,13 +6760,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="20" t="str">
         <f>IF(B26&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B26)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B26), INDEX($I$2:$I$15, MATCH(B26, $H$2:$H$15, 0))),"")</f>
@@ -6850,13 +6779,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="20" t="str">
         <f>IF(B27&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B27)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B27), INDEX($I$2:$I$15, MATCH(B27, $H$2:$H$15, 0))),"")</f>
@@ -6869,13 +6798,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="20" t="str">
         <f>IF(B28&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B28)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B28), INDEX($I$2:$I$15, MATCH(B28, $H$2:$H$15, 0))),"")</f>
@@ -6888,13 +6817,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="20" t="str">
         <f>IF(B29&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B29)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B29), INDEX($I$2:$I$15, MATCH(B29, $H$2:$H$15, 0))),"")</f>
@@ -6907,13 +6836,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="20" t="str">
         <f>IF(B30&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B30)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B30), INDEX($I$2:$I$15, MATCH(B30, $H$2:$H$15, 0))),"")</f>
@@ -6926,13 +6855,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="20" t="str">
         <f>IF(B31&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B31)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B31), INDEX($I$2:$I$15, MATCH(B31, $H$2:$H$15, 0))),"")</f>
@@ -6945,13 +6874,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="20" t="str">
         <f>IF(B32&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B32)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B32), INDEX($I$2:$I$15, MATCH(B32, $H$2:$H$15, 0))),"")</f>
@@ -6964,13 +6893,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="20" t="str">
         <f>IF(B33&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B33)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B33), INDEX($I$2:$I$15, MATCH(B33, $H$2:$H$15, 0))),"")</f>
@@ -6983,13 +6912,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="20" t="str">
         <f>IF(B34&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B34)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B34), INDEX($I$2:$I$15, MATCH(B34, $H$2:$H$15, 0))),"")</f>
@@ -7002,13 +6931,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="20" t="str">
         <f>IF(B35&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B35)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B35), INDEX($I$2:$I$15, MATCH(B35, $H$2:$H$15, 0))),"")</f>
@@ -7024,10 +6953,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="20" t="str">
         <f>IF(B36&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B36)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B36), INDEX($I$2:$I$15, MATCH(B36, $H$2:$H$15, 0))),"")</f>
@@ -7040,13 +6969,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="20" t="str">
         <f>IF(B37&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B37)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B37), INDEX($I$2:$I$15, MATCH(B37, $H$2:$H$15, 0))),"")</f>
@@ -7059,13 +6988,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="20" t="str">
         <f>IF(B38&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B38)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B38), INDEX($I$2:$I$15, MATCH(B38, $H$2:$H$15, 0))),"")</f>
@@ -7078,13 +7007,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="20" t="str">
         <f>IF(B39&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B39)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B39), INDEX($I$2:$I$15, MATCH(B39, $H$2:$H$15, 0))),"")</f>
@@ -7097,13 +7026,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="20" t="str">
         <f>IF(B40&lt;&gt;"",IF(COUNTIF($H$2:$H$15,B40)=0, SUBSTITUTE('MASKING-GUIDE'!$I$20,"&lt;field&gt;",B40), INDEX($I$2:$I$15, MATCH(B40, $H$2:$H$15, 0))),"")</f>
@@ -7566,7 +7495,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7594,7 +7523,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -7637,13 +7566,13 @@
       <c r="F7" s="8"/>
       <c r="G7" s="4"/>
       <c r="H7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -7652,20 +7581,20 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="G8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="12"/>
@@ -7675,16 +7604,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="14" t="b">
         <v>1</v>
@@ -7709,20 +7638,20 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="G11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="12"/>
@@ -7732,16 +7661,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="14" t="b">
         <v>1</v>
@@ -7769,7 +7698,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="4">
         <v>64</v>
@@ -7800,7 +7729,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -7843,13 +7772,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="4"/>
       <c r="H19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -7858,20 +7787,20 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="G20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="4"/>
@@ -7881,16 +7810,16 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="53"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="14" t="b">
         <v>1</v>
@@ -7928,14 +7857,14 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
+      <c r="E24" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="4"/>
     </row>
   </sheetData>

--- a/dbx_context_param_optima.xlsx
+++ b/dbx_context_param_optima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KLMembrano\OneDrive - PLDT\dbx_automation\dbx_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE74BE-ADA3-4709-B9E3-5F1BCF39C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53214F3B-FF71-4DBD-9AAF-4F513F5F93BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="1" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
   <si>
     <t>iteration</t>
   </si>
@@ -412,9 +412,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>Represents the specific date related to the wallet account or subscription, which can be useful for time-based analyses</t>
-  </si>
-  <si>
     <t>date inline from the file</t>
   </si>
   <si>
@@ -425,9 +422,6 @@
   </si>
   <si>
     <t>p_task_key_name</t>
-  </si>
-  <si>
-    <t>txn_date</t>
   </si>
   <si>
     <t>p_partition_column</t>
@@ -565,12 +559,6 @@
     <t>DO NOT CHANGE</t>
   </si>
   <si>
-    <t>file_timestamp_bucket</t>
-  </si>
-  <si>
-    <t>timestampbucket</t>
-  </si>
-  <si>
     <t>daily</t>
   </si>
   <si>
@@ -614,12 +602,6 @@
   </si>
   <si>
     <t>tenant_id</t>
-  </si>
-  <si>
-    <t>load_date</t>
-  </si>
-  <si>
-    <t>current date of when the data was loaded to table</t>
   </si>
   <si>
     <t>decimal(10,0)</t>
@@ -969,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1083,10 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1654,8 +1632,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1684,10 +1662,10 @@
         <v>98</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,10 +1674,10 @@
         <v>_c0</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" t="str" cm="1">
@@ -1722,10 +1700,10 @@
         <v>_c1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" t="str" cm="1">
@@ -1740,10 +1718,10 @@
         <v>_c2</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" t="str" cm="1">
@@ -1757,7 +1735,7 @@
         <v>_c3</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1774,7 +1752,7 @@
         <v>_c4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1785,7 +1763,7 @@
         <v/>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
         <v>107</v>
@@ -1800,7 +1778,7 @@
         <v>_c5</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1811,10 +1789,10 @@
         <v/>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
         <v>109</v>
@@ -1826,10 +1804,10 @@
         <v>_c6</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" t="str" cm="1">
@@ -1837,13 +1815,13 @@
         <v/>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1852,7 +1830,7 @@
         <v>_c7</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1863,13 +1841,13 @@
         <v/>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,26 +1856,17 @@
         <v>_c8</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(B10,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,26 +1875,17 @@
         <v>_c9</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(B11,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1934,34 +1894,33 @@
         <v>_c10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(B12,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
-      </c>
-      <c r="I12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(B13&lt;&gt;"", "_c" &amp; ROW(B13)-ROW($B$2), "")</f>
-        <v/>
-      </c>
-      <c r="D13"/>
+        <v>_c11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" t="str" cm="1">
         <f t="array" ref="E13">_xlfn.XLOOKUP(B13,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -2647,18 +2606,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="lowerCase">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1029" r:id="rId4" name="removeSpace_comma">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1203960</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2667,7 +2626,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="lowerCase"/>
+        <control shapeId="1029" r:id="rId4" name="removeSpace_comma"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2697,18 +2656,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId8" name="removeSpace_comma">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId8" name="lowerCase">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1203960</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2717,7 +2676,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId8" name="removeSpace_comma"/>
+        <control shapeId="1025" r:id="rId8" name="lowerCase"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2729,8 +2688,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2751,7 +2710,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G3" s="44"/>
     </row>
@@ -2764,10 +2723,10 @@
         <v>_b</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -2775,13 +2734,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -2792,10 +2751,10 @@
         <v>105</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -2803,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -2814,10 +2773,10 @@
         <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2825,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -2839,13 +2798,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -2856,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -2881,15 +2840,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -2897,7 +2856,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -2905,12 +2864,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="32" t="str">
         <f>_xlfn.CONCAT(D18,"_task")</f>
@@ -2923,47 +2882,47 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="32" t="str">
         <f>IF(LOWER(C9)="hourly","txn_date",
-IF(LOWER(C9)="daily","txn_date",
+IF(LOWER(C9)="daily","file_date",
 IF(LOWER(C9)="minutes","file_timestamp_bucket, txn_date","")))</f>
-        <v>txn_date</v>
+        <v>file_date</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="35" t="str">
         <f>IF(LOWER(C9)="hourly","file_timestamp_bucket",
-IF(LOWER(C9)="daily","txn_date"))</f>
-        <v>txn_date</v>
+IF(LOWER(C9)="daily","file_date"))</f>
+        <v>file_date</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>179</v>
+      <c r="B21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2993,13 +2952,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3007,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3018,10 +2977,10 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,10 +2988,10 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3040,21 +2999,21 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3062,10 +3021,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,219 +3032,219 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
         <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3293,10 +3252,10 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3304,10 +3263,10 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3493,47 +3452,47 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>8,dbx_process_dttm</v>
+        <v>8,file_date</v>
       </c>
       <c r="B10" t="str">
         <f>IF(schema!B10&lt;&gt;"", schema!B10, "")</f>
-        <v>dbx_process_dttm</v>
+        <v>file_date</v>
       </c>
       <c r="C10" t="str">
         <f>IF(schema!C10&lt;&gt;"", schema!C10, "")</f>
-        <v>timestamp</v>
+        <v>date</v>
       </c>
       <c r="D10" s="20" t="str">
         <f>IF(schema!B10&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B10), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B10, 0),"")</f>
-        <v>dbx_process_dttm</v>
+        <v>file_date</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>9,file_name</v>
+        <v>9,dbx_process_dttm</v>
       </c>
       <c r="B11" t="str">
         <f>IF(schema!B11&lt;&gt;"", schema!B11, "")</f>
-        <v>file_name</v>
+        <v>dbx_process_dttm</v>
       </c>
       <c r="C11" t="str">
         <f>IF(schema!C11&lt;&gt;"", schema!C11, "")</f>
-        <v>string</v>
+        <v>timestamp</v>
       </c>
       <c r="D11" s="20" t="str">
         <f>IF(schema!B11&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B11), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B11, 0),"")</f>
-        <v>file_name</v>
+        <v>dbx_process_dttm</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>10,file_id</v>
+        <v>10,file_name</v>
       </c>
       <c r="B12" t="str">
         <f>IF(schema!B12&lt;&gt;"", schema!B12, "")</f>
-        <v>file_id</v>
+        <v>file_name</v>
       </c>
       <c r="C12" t="str">
         <f>IF(schema!C12&lt;&gt;"", schema!C12, "")</f>
@@ -3541,25 +3500,25 @@
       </c>
       <c r="D12" s="20" t="str">
         <f>IF(schema!B12&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B12), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B12, 0),"")</f>
-        <v>file_id</v>
+        <v>file_name</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>11,file_id</v>
       </c>
       <c r="B13" t="str">
         <f>IF(schema!B13&lt;&gt;"", schema!B13, "")</f>
-        <v/>
+        <v>file_id</v>
       </c>
       <c r="C13" t="str">
         <f>IF(schema!C13&lt;&gt;"", schema!C13, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D13" s="20" t="str">
         <f>IF(schema!B13&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B13), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B13, 0),"")</f>
-        <v/>
+        <v>file_id</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/dbx_context_param_optima.xlsx
+++ b/dbx_context_param_optima.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KLMembrano\OneDrive - PLDT\dbx_automation\dbx_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53214F3B-FF71-4DBD-9AAF-4F513F5F93BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07057A7D-A6B5-458A-9D52-B94190339239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="1" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" r:id="rId1"/>
     <sheet name="newcontext" sheetId="10" r:id="rId2"/>
-    <sheet name="TAGS" sheetId="11" r:id="rId3"/>
-    <sheet name="hash" sheetId="3" r:id="rId4"/>
-    <sheet name="masking_fields" sheetId="4" r:id="rId5"/>
-    <sheet name="MASKING-GUIDE" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="TAGS" sheetId="11" r:id="rId4"/>
+    <sheet name="hash" sheetId="3" r:id="rId5"/>
+    <sheet name="masking_fields" sheetId="4" r:id="rId6"/>
+    <sheet name="MASKING-GUIDE" sheetId="5" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="171">
   <si>
     <t>iteration</t>
   </si>
@@ -520,24 +521,9 @@
     <t>dev</t>
   </si>
   <si>
-    <t>GENZ PIPELINE</t>
-  </si>
-  <si>
-    <t>kenny</t>
-  </si>
-  <si>
     <t>implementation_date</t>
   </si>
   <si>
-    <t>20250913</t>
-  </si>
-  <si>
-    <t>1) cox_sms
-2) cox_data
-3) cox_call
-4) cox_byte</t>
-  </si>
-  <si>
     <t>LEGEND:</t>
   </si>
   <si>
@@ -550,9 +536,6 @@
     <t>ORANGE</t>
   </si>
   <si>
-    <t>EXCEPTION</t>
-  </si>
-  <si>
     <t>CAN BE CHANGE</t>
   </si>
   <si>
@@ -565,54 +548,9 @@
     <t>parquet</t>
   </si>
   <si>
-    <t>sid_source</t>
-  </si>
-  <si>
-    <t>opt_dly_descriptions</t>
-  </si>
-  <si>
-    <t>/talend_prod/data/hive/gdm_landing/optima/opt_dly_descriptions/</t>
-  </si>
-  <si>
-    <t>opt_dly_descriptions*</t>
-  </si>
-  <si>
     <t>1gb</t>
   </si>
   <si>
-    <t>OPTIMA - opt_dly_descriptions</t>
-  </si>
-  <si>
-    <t>description_code</t>
-  </si>
-  <si>
-    <t>language_code</t>
-  </si>
-  <si>
-    <t>description_group</t>
-  </si>
-  <si>
-    <t>description_text</t>
-  </si>
-  <si>
-    <t>short_description_text</t>
-  </si>
-  <si>
-    <t>config_tag_id</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>decimal(10,0)</t>
-  </si>
-  <si>
-    <t>decimal(6,0)</t>
-  </si>
-  <si>
-    <t>/optima/raw/databases/full/optima_op_repadmin_db_prd_a/ARBOR/DESCRIPTIONS/</t>
-  </si>
-  <si>
     <t>on_prem_p_file_mask</t>
   </si>
   <si>
@@ -625,10 +563,43 @@
     <t>s3_source_file_dir</t>
   </si>
   <si>
-    <t>MANIFESTs*.txt</t>
-  </si>
-  <si>
-    <t>*.parquets</t>
+    <t>OPTIMA - opt_dly_opt_workorder_item</t>
+  </si>
+  <si>
+    <t>*.parquet</t>
+  </si>
+  <si>
+    <t>MANIFEST*.txt</t>
+  </si>
+  <si>
+    <t>to_date(date_format(now(), 'yyyy-mm-dd'), 'yyyy-mm-dd') as file_date</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>check_null</t>
+  </si>
+  <si>
+    <t>target_column</t>
+  </si>
+  <si>
+    <t>data_standardization_configuration</t>
+  </si>
+  <si>
+    <t>cus_dly_id_acct_map</t>
+  </si>
+  <si>
+    <t>/optima/raw/databases/full/optima_op_repcust1_db_prd_a/ARBOR/CUSTOMER_ID_ACCT_MAP/</t>
+  </si>
+  <si>
+    <t>remove file_date</t>
+  </si>
+  <si>
+    <t>EXCEPTION / OPTIONAL</t>
+  </si>
+  <si>
+    <t>OPTIMA PIPELINE</t>
   </si>
 </sst>
 </file>
@@ -716,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1026,7 +1003,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,6 +1042,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,8 +1612,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1661,23 +1641,17 @@
       <c r="D1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A25" si="0">IF(B2&lt;&gt;"", "_c" &amp; ROW(B2)-ROW($B$2), "")</f>
-        <v>_c0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
+        <v/>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" t="str" cm="1">
@@ -1697,13 +1671,7 @@
     <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>_c1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
+        <v/>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" t="str" cm="1">
@@ -1715,13 +1683,7 @@
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>_c2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
+        <v/>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" t="str" cm="1">
@@ -1732,13 +1694,7 @@
     <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>_c3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v/>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" t="str" cm="1">
@@ -1749,13 +1705,7 @@
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A17" si="1">IF(B6&lt;&gt;"", "_c" &amp; ROW(B6)-ROW($B$2), "")</f>
-        <v>_c4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v/>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" t="str" cm="1">
@@ -1775,13 +1725,7 @@
     <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>_c5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v/>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" t="str" cm="1">
@@ -1801,13 +1745,7 @@
     <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>_c6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" t="s">
-        <v>171</v>
+        <v/>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" t="str" cm="1">
@@ -1827,13 +1765,7 @@
     <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v>_c7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v/>
       </c>
       <c r="D9"/>
       <c r="E9" t="str" cm="1">
@@ -1853,17 +1785,9 @@
     <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>_c8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D10"/>
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10">_xlfn.XLOOKUP(B10,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1872,17 +1796,9 @@
     <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(B11&lt;&gt;"", "_c" &amp; ROW(B11)-ROW($B$2), "")</f>
-        <v>_c9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D11"/>
       <c r="E11" t="str" cm="1">
         <f t="array" ref="E11">_xlfn.XLOOKUP(B11,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1891,17 +1807,9 @@
     <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(B12&lt;&gt;"", "_c" &amp; ROW(B12)-ROW($B$2), "")</f>
-        <v>_c10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D12"/>
       <c r="E12" t="str" cm="1">
         <f t="array" ref="E12">_xlfn.XLOOKUP(B12,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1910,17 +1818,9 @@
     <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(B13&lt;&gt;"", "_c" &amp; ROW(B13)-ROW($B$2), "")</f>
-        <v>_c11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D13"/>
       <c r="E13" t="str" cm="1">
         <f t="array" ref="E13">_xlfn.XLOOKUP(B13,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1964,7 +1864,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17"/>
       <c r="E17" t="str" cm="1">
         <f t="array" ref="E17">_xlfn.XLOOKUP(B17,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1975,7 +1875,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18"/>
       <c r="E18" t="str" cm="1">
         <f t="array" ref="E18">_xlfn.XLOOKUP(B18,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1986,7 +1886,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19"/>
       <c r="E19" t="str" cm="1">
         <f t="array" ref="E19">_xlfn.XLOOKUP(B19,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1997,7 +1897,7 @@
         <f>IF(B20&lt;&gt;"", "_c" &amp; ROW(B20)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20"/>
       <c r="E20" t="str" cm="1">
         <f t="array" ref="E20">_xlfn.XLOOKUP(B20,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -2008,7 +1908,7 @@
         <f>IF(B21&lt;&gt;"", "_c" &amp; ROW(B21)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21"/>
       <c r="E21" t="str" cm="1">
         <f t="array" ref="E21">_xlfn.XLOOKUP(B21,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -2606,18 +2506,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId4" name="removeSpace_comma">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="lowerCase">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1203960</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2626,7 +2526,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId4" name="removeSpace_comma"/>
+        <control shapeId="1025" r:id="rId4" name="lowerCase"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2656,18 +2556,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="lowerCase">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1029" r:id="rId8" name="removeSpace_comma">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1203960</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2676,7 +2576,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="lowerCase"/>
+        <control shapeId="1029" r:id="rId8" name="removeSpace_comma"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2688,8 +2588,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2709,10 +2609,10 @@
       <c r="C3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="44"/>
+      <c r="F3" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
@@ -2723,115 +2623,109 @@
         <v>_b</v>
       </c>
       <c r="F4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>159</v>
+      <c r="C5" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>152</v>
+      <c r="F6" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>159</v>
+      <c r="C7" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>156</v>
+      <c r="C9" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>148</v>
-      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>157</v>
+      <c r="C10" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="41" t="b">
-        <v>1</v>
+      <c r="C11" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>147</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="51"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2839,32 +2733,28 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>160</v>
-      </c>
+      <c r="C14" s="51"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>162</v>
+      <c r="C16" s="40" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>163</v>
+      <c r="C17" s="40" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -2873,11 +2763,11 @@
       </c>
       <c r="C18" s="32" t="str">
         <f>_xlfn.CONCAT(D18,"_task")</f>
-        <v>opt_dly_descriptions_task</v>
-      </c>
-      <c r="D18" s="36" t="str">
+        <v>cus_dly_id_acct_map_task</v>
+      </c>
+      <c r="D18" s="52" t="str">
         <f>C7</f>
-        <v>opt_dly_descriptions</v>
+        <v>cus_dly_id_acct_map</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -2903,26 +2793,26 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2935,12 +2825,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B490638-0481-4D85-B39F-05C9CD840E32}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FDE1F4-2EBC-45C8-81DE-831911F714A4}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2951,13 +2894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3274,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990EE4C-EB41-42AA-A164-70046E99E424}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D182"/>
@@ -3308,217 +3251,217 @@
     <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(B2&lt;&gt;"", ROW(B2)-ROW($B$2) &amp; ","&amp;B2, "")</f>
-        <v>0,description_code</v>
+        <v/>
       </c>
       <c r="B2" t="str">
         <f>IF(schema!B2&lt;&gt;"", schema!B2, "")</f>
-        <v>description_code</v>
+        <v/>
       </c>
       <c r="C2" t="str">
         <f>IF(schema!C2&lt;&gt;"", schema!C2, "")</f>
-        <v>decimal(10,0)</v>
+        <v/>
       </c>
       <c r="D2" s="20" t="str">
         <f>IF(schema!B2&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B2), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B2, 0),"")</f>
-        <v>description_code</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"", ROW(B3)-ROW($B$2) &amp; ","&amp;B3, "")</f>
-        <v>1,language_code</v>
+        <v/>
       </c>
       <c r="B3" t="str">
         <f>IF(schema!B3&lt;&gt;"", schema!B3, "")</f>
-        <v>language_code</v>
+        <v/>
       </c>
       <c r="C3" t="str">
         <f>IF(schema!C3&lt;&gt;"", schema!C3, "")</f>
-        <v>decimal(6,0)</v>
+        <v/>
       </c>
       <c r="D3" s="20" t="str">
         <f>IF(schema!B3&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B3), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B3, 0),"")</f>
-        <v>language_code</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>2,description_group</v>
+        <v/>
       </c>
       <c r="B4" t="str">
         <f>IF(schema!B4&lt;&gt;"", schema!B4, "")</f>
-        <v>description_group</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <f>IF(schema!C4&lt;&gt;"", schema!C4, "")</f>
-        <v>decimal(6,0)</v>
+        <v/>
       </c>
       <c r="D4" s="20" t="str">
         <f>IF(schema!B4&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B4), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B4, 0),"")</f>
-        <v>description_group</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>3,description_text</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <f>IF(schema!B5&lt;&gt;"", schema!B5, "")</f>
-        <v>description_text</v>
+        <v/>
       </c>
       <c r="C5" t="str">
         <f>IF(schema!C5&lt;&gt;"", schema!C5, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D5" s="20" t="str">
         <f>IF(schema!B5&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B5), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B5, 0),"")</f>
-        <v>description_text</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>4,short_description_text</v>
+        <v/>
       </c>
       <c r="B6" t="str">
         <f>IF(schema!B6&lt;&gt;"", schema!B6, "")</f>
-        <v>short_description_text</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <f>IF(schema!C6&lt;&gt;"", schema!C6, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D6" s="20" t="str">
         <f>IF(schema!B6&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B6), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B6, 0),"")</f>
-        <v>short_description_text</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>5,config_tag_id</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <f>IF(schema!B7&lt;&gt;"", schema!B7, "")</f>
-        <v>config_tag_id</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <f>IF(schema!C7&lt;&gt;"", schema!C7, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D7" s="20" t="str">
         <f>IF(schema!B7&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B7), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B7, 0),"")</f>
-        <v>config_tag_id</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>6,tenant_id</v>
+        <v/>
       </c>
       <c r="B8" t="str">
         <f>IF(schema!B8&lt;&gt;"", schema!B8, "")</f>
-        <v>tenant_id</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <f>IF(schema!C8&lt;&gt;"", schema!C8, "")</f>
-        <v>decimal(10,0)</v>
+        <v/>
       </c>
       <c r="D8" s="20" t="str">
         <f>IF(schema!B8&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B8), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B8, 0),"")</f>
-        <v>tenant_id</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>7,sid_source</v>
+        <v/>
       </c>
       <c r="B9" t="str">
         <f>IF(schema!B9&lt;&gt;"", schema!B9, "")</f>
-        <v>sid_source</v>
+        <v/>
       </c>
       <c r="C9" t="str">
         <f>IF(schema!C9&lt;&gt;"", schema!C9, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D9" s="20" t="str">
         <f>IF(schema!B9&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B9), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B9, 0),"")</f>
-        <v>sid_source</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>8,file_date</v>
+        <v/>
       </c>
       <c r="B10" t="str">
         <f>IF(schema!B10&lt;&gt;"", schema!B10, "")</f>
-        <v>file_date</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <f>IF(schema!C10&lt;&gt;"", schema!C10, "")</f>
-        <v>date</v>
+        <v/>
       </c>
       <c r="D10" s="20" t="str">
         <f>IF(schema!B10&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B10), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B10, 0),"")</f>
-        <v>file_date</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>9,dbx_process_dttm</v>
+        <v/>
       </c>
       <c r="B11" t="str">
         <f>IF(schema!B11&lt;&gt;"", schema!B11, "")</f>
-        <v>dbx_process_dttm</v>
+        <v/>
       </c>
       <c r="C11" t="str">
         <f>IF(schema!C11&lt;&gt;"", schema!C11, "")</f>
-        <v>timestamp</v>
+        <v/>
       </c>
       <c r="D11" s="20" t="str">
         <f>IF(schema!B11&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B11), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B11, 0),"")</f>
-        <v>dbx_process_dttm</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>10,file_name</v>
+        <v/>
       </c>
       <c r="B12" t="str">
         <f>IF(schema!B12&lt;&gt;"", schema!B12, "")</f>
-        <v>file_name</v>
+        <v/>
       </c>
       <c r="C12" t="str">
         <f>IF(schema!C12&lt;&gt;"", schema!C12, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D12" s="20" t="str">
         <f>IF(schema!B12&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B12), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B12, 0),"")</f>
-        <v>file_name</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>11,file_id</v>
+        <v/>
       </c>
       <c r="B13" t="str">
         <f>IF(schema!B13&lt;&gt;"", schema!B13, "")</f>
-        <v>file_id</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <f>IF(schema!C13&lt;&gt;"", schema!C13, "")</f>
-        <v>string</v>
+        <v/>
       </c>
       <c r="D13" s="20" t="str">
         <f>IF(schema!B13&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B13), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B13, 0),"")</f>
-        <v>file_id</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6117,7 +6060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A88009-93D8-4B0A-8C70-440B2F9898E3}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I100"/>
@@ -7416,7 +7359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85241015-4B45-4A87-AF5E-CDB473B1D3F3}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K24"/>
@@ -7540,10 +7483,10 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -7563,8 +7506,8 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="11" t="s">
         <v>70</v>
       </c>
@@ -7597,10 +7540,10 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="47" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -7620,8 +7563,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="11" t="s">
         <v>70</v>
       </c>
@@ -7746,10 +7689,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="49" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -7769,8 +7712,8 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="11" t="s">
         <v>70</v>
       </c>
@@ -7816,14 +7759,14 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="4"/>
     </row>
   </sheetData>

--- a/dbx_context_param_optima.xlsx
+++ b/dbx_context_param_optima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KLMembrano\OneDrive - PLDT\dbx_automation\dbx_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07057A7D-A6B5-458A-9D52-B94190339239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122209E-3A2E-4F8D-B49F-32B85E789DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="540" activeTab="1" xr2:uid="{15E29264-49B0-4491-96C0-AFEF115122E3}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
   <si>
     <t>iteration</t>
   </si>
@@ -563,9 +563,6 @@
     <t>s3_source_file_dir</t>
   </si>
   <si>
-    <t>OPTIMA - opt_dly_opt_workorder_item</t>
-  </si>
-  <si>
     <t>*.parquet</t>
   </si>
   <si>
@@ -587,12 +584,6 @@
     <t>data_standardization_configuration</t>
   </si>
   <si>
-    <t>cus_dly_id_acct_map</t>
-  </si>
-  <si>
-    <t>/optima/raw/databases/full/optima_op_repcust1_db_prd_a/ARBOR/CUSTOMER_ID_ACCT_MAP/</t>
-  </si>
-  <si>
     <t>remove file_date</t>
   </si>
   <si>
@@ -600,6 +591,66 @@
   </si>
   <si>
     <t>OPTIMA PIPELINE</t>
+  </si>
+  <si>
+    <t>workorder_item_id</t>
+  </si>
+  <si>
+    <t>decimal(19,0)</t>
+  </si>
+  <si>
+    <t>address_action_id</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>site_disc</t>
+  </si>
+  <si>
+    <t>fulfillment_partner_id</t>
+  </si>
+  <si>
+    <t>decimal(10,0)</t>
+  </si>
+  <si>
+    <t>installation_time</t>
+  </si>
+  <si>
+    <t>owning_account_id</t>
+  </si>
+  <si>
+    <t>owning_cfs_id</t>
+  </si>
+  <si>
+    <t>work_fulfillment_options</t>
+  </si>
+  <si>
+    <t>workorder_item_external_id</t>
+  </si>
+  <si>
+    <t>work_specification_external_id</t>
+  </si>
+  <si>
+    <t>work_specification_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>workfulfillmentoptionsretrievalerror</t>
+  </si>
+  <si>
+    <t>sid_source</t>
+  </si>
+  <si>
+    <t>opt_dly_opt_workorder_item</t>
+  </si>
+  <si>
+    <t>OPTIMA -opt_dly_opt_workorder_item</t>
+  </si>
+  <si>
+    <t>/optima/raw/databases/full/optima_op_digital_db_prd_a/POSTGRES/OPT_WORKORDER_ITEM/</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1015,6 +1065,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,10 +1096,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,8 +1139,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>1203960</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1204,8 +1255,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1821180</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1613,23 +1664,24 @@
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="101.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1638,22 +1690,28 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A25" si="0">IF(B2&lt;&gt;"", "_c" &amp; ROW(B2)-ROW($B$2), "")</f>
-        <v/>
-      </c>
-      <c r="D2" s="28"/>
+        <v>_c0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="27"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2">_xlfn.XLOOKUP(B2,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1671,9 +1729,15 @@
     <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D3" s="28"/>
+        <v>_c1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27"/>
       <c r="E3" t="str" cm="1">
         <f t="array" ref="E3">_xlfn.XLOOKUP(B3,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1683,9 +1747,15 @@
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="29"/>
+        <v>_c2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" t="str" cm="1">
         <f t="array" ref="E4">_xlfn.XLOOKUP(B4,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1694,9 +1764,15 @@
     <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="28"/>
+        <v>_c3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" t="str" cm="1">
         <f t="array" ref="E5">_xlfn.XLOOKUP(B5,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1705,9 +1781,15 @@
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A17" si="1">IF(B6&lt;&gt;"", "_c" &amp; ROW(B6)-ROW($B$2), "")</f>
-        <v/>
-      </c>
-      <c r="D6" s="29"/>
+        <v>_c4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="28"/>
       <c r="E6" t="str" cm="1">
         <f t="array" ref="E6">_xlfn.XLOOKUP(B6,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1725,9 +1807,15 @@
     <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D7" s="29"/>
+        <v>_c5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="28"/>
       <c r="E7" t="str" cm="1">
         <f t="array" ref="E7">_xlfn.XLOOKUP(B7,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1745,9 +1833,15 @@
     <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D8" s="29"/>
+        <v>_c6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" t="str" cm="1">
         <f t="array" ref="E8">_xlfn.XLOOKUP(B8,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1765,7 +1859,13 @@
     <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>_c7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="str" cm="1">
@@ -1785,7 +1885,13 @@
     <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>_c8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="str" cm="1">
@@ -1796,7 +1902,13 @@
     <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(B11&lt;&gt;"", "_c" &amp; ROW(B11)-ROW($B$2), "")</f>
-        <v/>
+        <v>_c9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="str" cm="1">
@@ -1807,7 +1919,13 @@
     <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(B12&lt;&gt;"", "_c" &amp; ROW(B12)-ROW($B$2), "")</f>
-        <v/>
+        <v>_c10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="str" cm="1">
@@ -1818,7 +1936,13 @@
     <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(B13&lt;&gt;"", "_c" &amp; ROW(B13)-ROW($B$2), "")</f>
-        <v/>
+        <v>_c11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="str" cm="1">
@@ -1829,7 +1953,13 @@
     <row r="14" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>_c12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="str" cm="1">
@@ -1840,9 +1970,15 @@
     <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D15" s="29"/>
+        <v>_c13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="28"/>
       <c r="E15" t="str" cm="1">
         <f t="array" ref="E15">_xlfn.XLOOKUP(B15,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1851,9 +1987,15 @@
     <row r="16" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D16" s="28"/>
+        <v>_c14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" t="str" cm="1">
         <f t="array" ref="E16">_xlfn.XLOOKUP(B16,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1862,9 +2004,17 @@
     <row r="17" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D17"/>
+        <v>_c15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" t="str" cm="1">
         <f t="array" ref="E17">_xlfn.XLOOKUP(B17,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1873,9 +2023,17 @@
     <row r="18" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18"/>
+        <v>_c16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
       <c r="E18" t="str" cm="1">
         <f t="array" ref="E18">_xlfn.XLOOKUP(B18,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1884,9 +2042,17 @@
     <row r="19" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19"/>
+        <v>_c17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
       <c r="E19" t="str" cm="1">
         <f t="array" ref="E19">_xlfn.XLOOKUP(B19,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1895,9 +2061,17 @@
     <row r="20" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(B20&lt;&gt;"", "_c" &amp; ROW(B20)-ROW($B$2), "")</f>
-        <v/>
-      </c>
-      <c r="D20"/>
+        <v>_c18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" t="str" cm="1">
         <f t="array" ref="E20">_xlfn.XLOOKUP(B20,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1919,7 +2093,7 @@
         <f>IF(B22&lt;&gt;"", "_c" &amp; ROW(B22)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="28"/>
       <c r="E22" t="str" cm="1">
         <f t="array" ref="E22">_xlfn.XLOOKUP(B22,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1930,7 +2104,7 @@
         <f>IF(B23&lt;&gt;"", "_c" &amp; ROW(B23)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="28"/>
       <c r="E23" t="str" cm="1">
         <f t="array" ref="E23">_xlfn.XLOOKUP(B23,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1941,7 +2115,7 @@
         <f>IF(B24&lt;&gt;"", "_c" &amp; ROW(B24)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="28"/>
       <c r="E24" t="str" cm="1">
         <f t="array" ref="E24">_xlfn.XLOOKUP(B24,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1952,7 +2126,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="28"/>
       <c r="E25" t="str" cm="1">
         <f t="array" ref="E25">_xlfn.XLOOKUP(B25,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1963,7 +2137,7 @@
         <f t="shared" ref="A26:A49" si="2">IF(B26&lt;&gt;"", "_c" &amp; ROW(B26)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="27"/>
       <c r="E26" t="str" cm="1">
         <f t="array" ref="E26">_xlfn.XLOOKUP(B26,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1974,7 +2148,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" t="str" cm="1">
         <f t="array" ref="E27">_xlfn.XLOOKUP(B27,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1985,7 +2159,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="28"/>
       <c r="E28" t="str" cm="1">
         <f t="array" ref="E28">_xlfn.XLOOKUP(B28,TAGS!$A$2:$A$29,TAGS!$B$2:$C$29,"",0)</f>
         <v/>
@@ -1996,161 +2170,161 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D44" s="29"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" ref="A50:A65" si="3">IF(B50&lt;&gt;"", "_c" &amp; ROW(B50)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
@@ -2163,112 +2337,112 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D56" s="29"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D59" s="29"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D60" s="29"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D61" s="29"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D63" s="29"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A97" si="4">IF(B66&lt;&gt;"", "_c" &amp; ROW(B66)-ROW($B$2), "")</f>
         <v/>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D68" s="29"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
@@ -2506,18 +2680,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="lowerCase">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1029" r:id="rId4" name="removeSpace_comma">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1203960</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>1821180</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2526,7 +2700,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="lowerCase"/>
+        <control shapeId="1029" r:id="rId4" name="removeSpace_comma"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2556,17 +2730,17 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId8" name="removeSpace_comma">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId8" name="lowerCase">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -2576,7 +2750,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId8" name="removeSpace_comma"/>
+        <control shapeId="1025" r:id="rId8" name="lowerCase"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2588,14 +2762,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.796875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.296875" customWidth="1"/>
     <col min="5" max="5" width="1.19921875" customWidth="1"/>
     <col min="6" max="6" width="18.19921875" bestFit="1" customWidth="1"/>
@@ -2606,19 +2780,19 @@
       <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="29" t="str">
         <f>IF(C6="silver","_s",IF(C6="bronze","_b",IF(C6="reference"," ","")))</f>
         <v>_b</v>
       </c>
@@ -2633,8 +2807,8 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>166</v>
+      <c r="C5" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>147</v>
@@ -2647,55 +2821,55 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>166</v>
+      <c r="C7" s="39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>152</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2704,28 +2878,28 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="40" t="b">
-        <v>0</v>
+      <c r="C11" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2733,19 +2907,19 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2753,28 +2927,28 @@
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>158</v>
+      <c r="C17" s="39" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="32" t="str">
+      <c r="C18" s="31" t="str">
         <f>_xlfn.CONCAT(D18,"_task")</f>
-        <v>cus_dly_id_acct_map_task</v>
-      </c>
-      <c r="D18" s="52" t="str">
+        <v>opt_dly_opt_workorder_item_task</v>
+      </c>
+      <c r="D18" s="42" t="str">
         <f>C7</f>
-        <v>cus_dly_id_acct_map</v>
+        <v>opt_dly_opt_workorder_item</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="32" t="str">
+      <c r="C19" s="31" t="str">
         <f>IF(LOWER(C9)="hourly","txn_date",
 IF(LOWER(C9)="daily","file_date",
 IF(LOWER(C9)="minutes","file_timestamp_bucket, txn_date","")))</f>
@@ -2782,10 +2956,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="35" t="str">
+      <c r="C20" s="34" t="str">
         <f>IF(LOWER(C9)="hourly","file_timestamp_bucket",
 IF(LOWER(C9)="daily","file_date"))</f>
         <v>file_date</v>
@@ -2795,24 +2969,24 @@
       <c r="B21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>167</v>
+      <c r="C21" s="29" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>159</v>
+      <c r="C22" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>160</v>
+      <c r="C23" s="31" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2840,23 +3014,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -2869,7 +3043,7 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2894,13 +3068,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3251,343 +3425,343 @@
     <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(B2&lt;&gt;"", ROW(B2)-ROW($B$2) &amp; ","&amp;B2, "")</f>
-        <v/>
+        <v>0,workorder_item_id</v>
       </c>
       <c r="B2" t="str">
         <f>IF(schema!B2&lt;&gt;"", schema!B2, "")</f>
-        <v/>
+        <v>workorder_item_id</v>
       </c>
       <c r="C2" t="str">
         <f>IF(schema!C2&lt;&gt;"", schema!C2, "")</f>
-        <v/>
+        <v>decimal(19,0)</v>
       </c>
       <c r="D2" s="20" t="str">
         <f>IF(schema!B2&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B2), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B2, 0),"")</f>
-        <v/>
+        <v>workorder_item_id</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"", ROW(B3)-ROW($B$2) &amp; ","&amp;B3, "")</f>
-        <v/>
+        <v>1,address_action_id</v>
       </c>
       <c r="B3" t="str">
         <f>IF(schema!B3&lt;&gt;"", schema!B3, "")</f>
-        <v/>
+        <v>address_action_id</v>
       </c>
       <c r="C3" t="str">
         <f>IF(schema!C3&lt;&gt;"", schema!C3, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D3" s="20" t="str">
         <f>IF(schema!B3&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B3), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B3, 0),"")</f>
-        <v/>
+        <v>address_action_id</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2,comments</v>
       </c>
       <c r="B4" t="str">
         <f>IF(schema!B4&lt;&gt;"", schema!B4, "")</f>
-        <v/>
+        <v>comments</v>
       </c>
       <c r="C4" t="str">
         <f>IF(schema!C4&lt;&gt;"", schema!C4, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D4" s="20" t="str">
         <f>IF(schema!B4&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B4), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B4, 0),"")</f>
-        <v/>
+        <v>comments</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3,site_disc</v>
       </c>
       <c r="B5" t="str">
         <f>IF(schema!B5&lt;&gt;"", schema!B5, "")</f>
-        <v/>
+        <v>site_disc</v>
       </c>
       <c r="C5" t="str">
         <f>IF(schema!C5&lt;&gt;"", schema!C5, "")</f>
-        <v/>
+        <v>decimal(19,0)</v>
       </c>
       <c r="D5" s="20" t="str">
         <f>IF(schema!B5&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B5), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B5, 0),"")</f>
-        <v/>
+        <v>site_disc</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4,fulfillment_partner_id</v>
       </c>
       <c r="B6" t="str">
         <f>IF(schema!B6&lt;&gt;"", schema!B6, "")</f>
-        <v/>
+        <v>fulfillment_partner_id</v>
       </c>
       <c r="C6" t="str">
         <f>IF(schema!C6&lt;&gt;"", schema!C6, "")</f>
-        <v/>
+        <v>decimal(10,0)</v>
       </c>
       <c r="D6" s="20" t="str">
         <f>IF(schema!B6&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B6), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B6, 0),"")</f>
-        <v/>
+        <v>fulfillment_partner_id</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5,installation_time</v>
       </c>
       <c r="B7" t="str">
         <f>IF(schema!B7&lt;&gt;"", schema!B7, "")</f>
-        <v/>
+        <v>installation_time</v>
       </c>
       <c r="C7" t="str">
         <f>IF(schema!C7&lt;&gt;"", schema!C7, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D7" s="20" t="str">
         <f>IF(schema!B7&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B7), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B7, 0),"")</f>
-        <v/>
+        <v>installation_time</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6,owning_account_id</v>
       </c>
       <c r="B8" t="str">
         <f>IF(schema!B8&lt;&gt;"", schema!B8, "")</f>
-        <v/>
+        <v>owning_account_id</v>
       </c>
       <c r="C8" t="str">
         <f>IF(schema!C8&lt;&gt;"", schema!C8, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>IF(schema!B8&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B8), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B8, 0),"")</f>
-        <v/>
+        <v>owning_account_id</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7,owning_cfs_id</v>
       </c>
       <c r="B9" t="str">
         <f>IF(schema!B9&lt;&gt;"", schema!B9, "")</f>
-        <v/>
+        <v>owning_cfs_id</v>
       </c>
       <c r="C9" t="str">
         <f>IF(schema!C9&lt;&gt;"", schema!C9, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D9" s="20" t="str">
         <f>IF(schema!B9&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B9), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B9, 0),"")</f>
-        <v/>
+        <v>owning_cfs_id</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8,work_fulfillment_options</v>
       </c>
       <c r="B10" t="str">
         <f>IF(schema!B10&lt;&gt;"", schema!B10, "")</f>
-        <v/>
+        <v>work_fulfillment_options</v>
       </c>
       <c r="C10" t="str">
         <f>IF(schema!C10&lt;&gt;"", schema!C10, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D10" s="20" t="str">
         <f>IF(schema!B10&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B10), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B10, 0),"")</f>
-        <v/>
+        <v>work_fulfillment_options</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>9,workorder_item_external_id</v>
       </c>
       <c r="B11" t="str">
         <f>IF(schema!B11&lt;&gt;"", schema!B11, "")</f>
-        <v/>
+        <v>workorder_item_external_id</v>
       </c>
       <c r="C11" t="str">
         <f>IF(schema!C11&lt;&gt;"", schema!C11, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D11" s="20" t="str">
         <f>IF(schema!B11&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B11), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B11, 0),"")</f>
-        <v/>
+        <v>workorder_item_external_id</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10,work_specification_external_id</v>
       </c>
       <c r="B12" t="str">
         <f>IF(schema!B12&lt;&gt;"", schema!B12, "")</f>
-        <v/>
+        <v>work_specification_external_id</v>
       </c>
       <c r="C12" t="str">
         <f>IF(schema!C12&lt;&gt;"", schema!C12, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D12" s="20" t="str">
         <f>IF(schema!B12&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B12), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B12, 0),"")</f>
-        <v/>
+        <v>work_specification_external_id</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>11,work_specification_id</v>
       </c>
       <c r="B13" t="str">
         <f>IF(schema!B13&lt;&gt;"", schema!B13, "")</f>
-        <v/>
+        <v>work_specification_id</v>
       </c>
       <c r="C13" t="str">
         <f>IF(schema!C13&lt;&gt;"", schema!C13, "")</f>
-        <v/>
+        <v>decimal(19,0)</v>
       </c>
       <c r="D13" s="20" t="str">
         <f>IF(schema!B13&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B13), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B13, 0),"")</f>
-        <v/>
+        <v>work_specification_id</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>12,order_id</v>
       </c>
       <c r="B14" t="str">
         <f>IF(schema!B14&lt;&gt;"", schema!B14, "")</f>
-        <v/>
+        <v>order_id</v>
       </c>
       <c r="C14" t="str">
         <f>IF(schema!C14&lt;&gt;"", schema!C14, "")</f>
-        <v/>
+        <v>decimal(19,0)</v>
       </c>
       <c r="D14" s="20" t="str">
         <f>IF(schema!B14&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B14), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B14, 0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>order_id</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>13,workfulfillmentoptionsretrievalerror</v>
       </c>
       <c r="B15" t="str">
         <f>IF(schema!B15&lt;&gt;"", schema!B15, "")</f>
-        <v/>
+        <v>workfulfillmentoptionsretrievalerror</v>
       </c>
       <c r="C15" t="str">
         <f>IF(schema!C15&lt;&gt;"", schema!C15, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D15" s="20" t="str">
         <f>IF(schema!B15&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B15), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B15, 0),"")</f>
-        <v/>
+        <v>workfulfillmentoptionsretrievalerror</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>14,sid_source</v>
       </c>
       <c r="B16" t="str">
         <f>IF(schema!B16&lt;&gt;"", schema!B16, "")</f>
-        <v/>
+        <v>sid_source</v>
       </c>
       <c r="C16" t="str">
         <f>IF(schema!C16&lt;&gt;"", schema!C16, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D16" s="20" t="str">
         <f>IF(schema!B16&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B16), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B16, 0),"")</f>
-        <v/>
+        <v>sid_source</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>15,file_date</v>
       </c>
       <c r="B17" t="str">
         <f>IF(schema!B17&lt;&gt;"", schema!B17, "")</f>
-        <v/>
+        <v>file_date</v>
       </c>
       <c r="C17" t="str">
         <f>IF(schema!C17&lt;&gt;"", schema!C17, "")</f>
-        <v/>
+        <v>date</v>
       </c>
       <c r="D17" s="20" t="str">
         <f>IF(schema!B17&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B17), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B17, 0),"")</f>
-        <v/>
+        <v>file_date</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>16,dbx_process_dttm</v>
       </c>
       <c r="B18" t="str">
         <f>IF(schema!B18&lt;&gt;"", schema!B18, "")</f>
-        <v/>
+        <v>dbx_process_dttm</v>
       </c>
       <c r="C18" t="str">
         <f>IF(schema!C18&lt;&gt;"", schema!C18, "")</f>
-        <v/>
+        <v>timestamp</v>
       </c>
       <c r="D18" s="20" t="str">
         <f>IF(schema!B18&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B18), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B18, 0),"")</f>
-        <v/>
+        <v>dbx_process_dttm</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>17,file_name</v>
       </c>
       <c r="B19" t="str">
         <f>IF(schema!B19&lt;&gt;"", schema!B19, "")</f>
-        <v/>
+        <v>file_name</v>
       </c>
       <c r="C19" t="str">
         <f>IF(schema!C19&lt;&gt;"", schema!C19, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D19" s="20" t="str">
         <f>IF(schema!B19&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B19), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B19, 0),"")</f>
-        <v/>
+        <v>file_name</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>18,file_id</v>
       </c>
       <c r="B20" s="21" t="str">
         <f>IF(schema!B20&lt;&gt;"", schema!B20, "")</f>
-        <v/>
+        <v>file_id</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>IF(schema!C20&lt;&gt;"", schema!C20, "")</f>
-        <v/>
+        <v>string</v>
       </c>
       <c r="D20" s="20" t="str">
         <f>IF(schema!B20&lt;&gt;"",_xlfn.XLOOKUP(TRIM(B20), masking_fields!$B$2:$B$100, masking_fields!$E$2:$E$100, B20, 0),"")</f>
-        <v/>
+        <v>file_id</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7483,10 +7657,10 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -7506,8 +7680,8 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="11" t="s">
         <v>70</v>
       </c>
@@ -7540,10 +7714,10 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="48" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -7563,8 +7737,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="11" t="s">
         <v>70</v>
       </c>
@@ -7689,10 +7863,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="50" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -7712,8 +7886,8 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="11" t="s">
         <v>70</v>
       </c>
@@ -7759,14 +7933,14 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="4"/>
     </row>
   </sheetData>
